--- a/artfynd/A 11097-2024 artfynd.xlsx
+++ b/artfynd/A 11097-2024 artfynd.xlsx
@@ -4559,7 +4559,7 @@
         <v>124808125</v>
       </c>
       <c r="B40" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
